--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter02/LinkToShape.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter02/LinkToShape.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\04. Excel - Creating a basic dashboard\Material\Ex_Files_Dashboard_Excel2016\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBFC7EC-AFA6-4D81-970A-63C306A3A3D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27195" windowHeight="14820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -17,8 +18,17 @@
     <sheet name="CityData" sheetId="2" r:id="rId3"/>
     <sheet name="SourceData02" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="68">
   <si>
     <t>Year</t>
   </si>
@@ -229,16 +239,20 @@
   <si>
     <t>Rate</t>
   </si>
+  <si>
+    <t>ADR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="[$$-540A]#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -321,41 +335,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Millares" xfId="4" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="5" builtinId="18"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -470,10 +485,10 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -508,6 +523,147 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Grupo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C493EFC0-0267-4116-9361-7742BD7AA294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2202180" y="137160"/>
+          <a:ext cx="601980" cy="541020"/>
+          <a:chOff x="2811780" y="125730"/>
+          <a:chExt cx="601980" cy="541020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="CityData!H1">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectángulo 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDEC985-8E95-4482-AA68-81F97B49AAE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2811780" y="388620"/>
+            <a:ext cx="601980" cy="278130"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:fld id="{CE98010C-2B8B-4089-933D-C237471AD9FC}" type="TxLink">
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:rPr>
+              <a:t>$101.92</a:t>
+            </a:fld>
+            <a:endParaRPr lang="es-GT" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectángulo 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2318A2D4-D9B2-44E5-8BD2-739611030338}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2891790" y="125730"/>
+            <a:ext cx="441960" cy="240030"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="es-GT" sz="1100"/>
+              <a:t>ADR</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -581,7 +737,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -718,7 +874,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -851,62 +1007,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="RoomService" displayName="RoomService" ref="A3:D28" totalsRowCount="1" headerRowDxfId="11">
-  <autoFilter ref="A3:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="RoomService" displayName="RoomService" ref="A3:D28" totalsRowCount="1" headerRowDxfId="11">
+  <autoFilter ref="A3:D27" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Month"/>
-    <tableColumn id="5" name="Revenue" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Month"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Revenue" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="GuestCount" displayName="GuestCount" ref="A3:E164" totalsRowCount="1" headerRowDxfId="8">
-  <autoFilter ref="A3:E163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="GuestCount" displayName="GuestCount" ref="A3:E164" totalsRowCount="1" headerRowDxfId="8">
+  <autoFilter ref="A3:E163" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="City"/>
-    <tableColumn id="4" name="State"/>
-    <tableColumn id="5" name="Guests" totalsRowFunction="sum" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="City"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="State"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Guests" totalsRowFunction="sum" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="AvgDailyRate" displayName="AvgDailyRate" ref="H3:L164" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="H3:L163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AvgDailyRate" displayName="AvgDailyRate" ref="H3:L164" totalsRowCount="1" headerRowDxfId="6">
+  <autoFilter ref="H3:L163" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="City"/>
-    <tableColumn id="4" name="State"/>
-    <tableColumn id="5" name="Rate" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="City"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="State"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Rate" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DeptExpenses2" displayName="DeptExpenses2" ref="A3:E100" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A3:E99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DeptExpenses2" displayName="DeptExpenses2" ref="A3:E100" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A3:E99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Month"/>
-    <tableColumn id="4" name="Department" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="Expenses" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Currency" totalsRowCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Year" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Month"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Department" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Expenses" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1225,49 +1381,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>RoomService[[#Totals],[Revenue]]</f>
         <v>977443</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <f>GuestCount[[#Totals],[Guests]]</f>
         <v>241078</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <f>DeptExpenses2[[#Totals],[Expenses]]</f>
         <v>5347182</v>
@@ -1276,26 +1432,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:D28"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -1323,7 +1480,7 @@
         <v>15834</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -1337,7 +1494,7 @@
         <v>37753</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1351,7 +1508,7 @@
         <v>36952</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1365,7 +1522,7 @@
         <v>58449</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -1379,7 +1536,7 @@
         <v>27764</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1393,7 +1550,7 @@
         <v>23472</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1407,7 +1564,7 @@
         <v>51503</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -1421,7 +1578,7 @@
         <v>46833</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -1435,7 +1592,7 @@
         <v>59446</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -1449,7 +1606,7 @@
         <v>21379</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -1463,7 +1620,7 @@
         <v>37933</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -1477,7 +1634,7 @@
         <v>58261</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -1491,7 +1648,7 @@
         <v>45648</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -1505,7 +1662,7 @@
         <v>30722</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -1519,7 +1676,7 @@
         <v>58381</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -1533,7 +1690,7 @@
         <v>54868</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2016</v>
       </c>
@@ -1547,7 +1704,7 @@
         <v>29964</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -1561,7 +1718,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2016</v>
       </c>
@@ -1575,7 +1732,7 @@
         <v>58372</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -1589,7 +1746,7 @@
         <v>32005</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -1603,7 +1760,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2016</v>
       </c>
@@ -1617,7 +1774,7 @@
         <v>31603</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -1631,7 +1788,7 @@
         <v>58416</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -1645,7 +1802,7 @@
         <v>24428</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1664,22 +1821,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L164"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="12">
+        <f>AVERAGE(AvgDailyRate[Rate])</f>
+        <v>101.92212500000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -1743,7 +1911,7 @@
         <v>114.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -1775,7 +1943,7 @@
         <v>108.12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -1807,7 +1975,7 @@
         <v>88.44</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1839,7 +2007,7 @@
         <v>104.01</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -1871,7 +2039,7 @@
         <v>101.06</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1903,7 +2071,7 @@
         <v>116.17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1935,7 +2103,7 @@
         <v>90.86</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -1967,7 +2135,7 @@
         <v>112.13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -1999,7 +2167,7 @@
         <v>117.84</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -2031,7 +2199,7 @@
         <v>91.78</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -2063,7 +2231,7 @@
         <v>111.17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -2095,7 +2263,7 @@
         <v>101.84</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -2127,7 +2295,7 @@
         <v>99.09</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -2159,7 +2327,7 @@
         <v>101.47</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -2191,7 +2359,7 @@
         <v>107.44</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -2223,7 +2391,7 @@
         <v>112.41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -2255,7 +2423,7 @@
         <v>107.42</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -2287,7 +2455,7 @@
         <v>96.01</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -2319,7 +2487,7 @@
         <v>101.42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -2351,7 +2519,7 @@
         <v>116.41</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -2383,7 +2551,7 @@
         <v>117.67</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -2415,7 +2583,7 @@
         <v>89.34</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -2447,7 +2615,7 @@
         <v>97.34</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -2479,7 +2647,7 @@
         <v>104.62</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -2511,7 +2679,7 @@
         <v>108.53</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -2543,7 +2711,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -2575,7 +2743,7 @@
         <v>94.93</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -2607,7 +2775,7 @@
         <v>110.51</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -2639,7 +2807,7 @@
         <v>87.22</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -2671,7 +2839,7 @@
         <v>111.19</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -2703,7 +2871,7 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -2735,7 +2903,7 @@
         <v>86.62</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -2767,7 +2935,7 @@
         <v>90.76</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -2799,7 +2967,7 @@
         <v>107.18</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -2831,7 +2999,7 @@
         <v>88.42</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2015</v>
       </c>
@@ -2863,7 +3031,7 @@
         <v>92.07</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -2895,7 +3063,7 @@
         <v>104.96</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2015</v>
       </c>
@@ -2927,7 +3095,7 @@
         <v>88.07</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2015</v>
       </c>
@@ -2959,7 +3127,7 @@
         <v>96.93</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2015</v>
       </c>
@@ -2991,7 +3159,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -3023,7 +3191,7 @@
         <v>113.58</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -3055,7 +3223,7 @@
         <v>107.92</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2015</v>
       </c>
@@ -3087,7 +3255,7 @@
         <v>91.07</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -3119,7 +3287,7 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -3151,7 +3319,7 @@
         <v>98.35</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2015</v>
       </c>
@@ -3183,7 +3351,7 @@
         <v>89.32</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -3215,7 +3383,7 @@
         <v>106.47</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -3247,7 +3415,7 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2015</v>
       </c>
@@ -3279,7 +3447,7 @@
         <v>96.29</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -3311,7 +3479,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -3343,7 +3511,7 @@
         <v>102.46</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2015</v>
       </c>
@@ -3375,7 +3543,7 @@
         <v>85.73</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -3407,7 +3575,7 @@
         <v>106.01</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2015</v>
       </c>
@@ -3439,7 +3607,7 @@
         <v>94.31</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2015</v>
       </c>
@@ -3471,7 +3639,7 @@
         <v>85.27</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -3503,7 +3671,7 @@
         <v>109.92</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2015</v>
       </c>
@@ -3535,7 +3703,7 @@
         <v>109.83</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2015</v>
       </c>
@@ -3567,7 +3735,7 @@
         <v>114.85</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -3599,7 +3767,7 @@
         <v>117.72</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2015</v>
       </c>
@@ -3631,7 +3799,7 @@
         <v>109.58</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -3663,7 +3831,7 @@
         <v>106.02</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -3695,7 +3863,7 @@
         <v>102.56</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -3727,7 +3895,7 @@
         <v>90.95</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -3759,7 +3927,7 @@
         <v>93.61</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -3791,7 +3959,7 @@
         <v>100.15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -3823,7 +3991,7 @@
         <v>109.91</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -3855,7 +4023,7 @@
         <v>97.19</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -3887,7 +4055,7 @@
         <v>100.97</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -3919,7 +4087,7 @@
         <v>117.82</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -3951,7 +4119,7 @@
         <v>104.37</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -3983,7 +4151,7 @@
         <v>88.08</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -4015,7 +4183,7 @@
         <v>87.55</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -4047,7 +4215,7 @@
         <v>90.93</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -4079,7 +4247,7 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -4111,7 +4279,7 @@
         <v>107.91</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2015</v>
       </c>
@@ -4143,7 +4311,7 @@
         <v>93.12</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2015</v>
       </c>
@@ -4175,7 +4343,7 @@
         <v>105.86</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2015</v>
       </c>
@@ -4207,7 +4375,7 @@
         <v>85.87</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2015</v>
       </c>
@@ -4239,7 +4407,7 @@
         <v>117.93</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2015</v>
       </c>
@@ -4271,7 +4439,7 @@
         <v>87.79</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2016</v>
       </c>
@@ -4303,7 +4471,7 @@
         <v>103.18</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2016</v>
       </c>
@@ -4335,7 +4503,7 @@
         <v>91.33</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2016</v>
       </c>
@@ -4367,7 +4535,7 @@
         <v>115.57</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -4399,7 +4567,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2016</v>
       </c>
@@ -4431,7 +4599,7 @@
         <v>106.04</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -4463,7 +4631,7 @@
         <v>109.91</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2016</v>
       </c>
@@ -4495,7 +4663,7 @@
         <v>88.55</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2016</v>
       </c>
@@ -4527,7 +4695,7 @@
         <v>90.13</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2016</v>
       </c>
@@ -4559,7 +4727,7 @@
         <v>108.13</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2016</v>
       </c>
@@ -4591,7 +4759,7 @@
         <v>87.64</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2016</v>
       </c>
@@ -4623,7 +4791,7 @@
         <v>94.66</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2016</v>
       </c>
@@ -4655,7 +4823,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2016</v>
       </c>
@@ -4687,7 +4855,7 @@
         <v>115.67</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2016</v>
       </c>
@@ -4719,7 +4887,7 @@
         <v>114.23</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -4751,7 +4919,7 @@
         <v>88.34</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2016</v>
       </c>
@@ -4783,7 +4951,7 @@
         <v>108.35</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2016</v>
       </c>
@@ -4815,7 +4983,7 @@
         <v>114.69</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2016</v>
       </c>
@@ -4847,7 +5015,7 @@
         <v>109.84</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2016</v>
       </c>
@@ -4879,7 +5047,7 @@
         <v>91.75</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2016</v>
       </c>
@@ -4911,7 +5079,7 @@
         <v>101.62</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2016</v>
       </c>
@@ -4943,7 +5111,7 @@
         <v>101.37</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2016</v>
       </c>
@@ -4975,7 +5143,7 @@
         <v>88.62</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2016</v>
       </c>
@@ -5007,7 +5175,7 @@
         <v>117.85</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2016</v>
       </c>
@@ -5039,7 +5207,7 @@
         <v>114.71</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2016</v>
       </c>
@@ -5071,7 +5239,7 @@
         <v>117.9</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2016</v>
       </c>
@@ -5103,7 +5271,7 @@
         <v>111.81</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2016</v>
       </c>
@@ -5135,7 +5303,7 @@
         <v>98.15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2016</v>
       </c>
@@ -5167,7 +5335,7 @@
         <v>102.23</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2016</v>
       </c>
@@ -5199,7 +5367,7 @@
         <v>105.82</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2016</v>
       </c>
@@ -5231,7 +5399,7 @@
         <v>108.72</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2016</v>
       </c>
@@ -5263,7 +5431,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2016</v>
       </c>
@@ -5295,7 +5463,7 @@
         <v>117.25</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2016</v>
       </c>
@@ -5327,7 +5495,7 @@
         <v>87.71</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2016</v>
       </c>
@@ -5359,7 +5527,7 @@
         <v>93.96</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2016</v>
       </c>
@@ -5391,7 +5559,7 @@
         <v>98.47</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2016</v>
       </c>
@@ -5423,7 +5591,7 @@
         <v>112.93</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2016</v>
       </c>
@@ -5455,7 +5623,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2016</v>
       </c>
@@ -5487,7 +5655,7 @@
         <v>97.28</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2016</v>
       </c>
@@ -5519,7 +5687,7 @@
         <v>103.96</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2016</v>
       </c>
@@ -5551,7 +5719,7 @@
         <v>114.59</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2016</v>
       </c>
@@ -5583,7 +5751,7 @@
         <v>98.73</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2016</v>
       </c>
@@ -5615,7 +5783,7 @@
         <v>100.15</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2016</v>
       </c>
@@ -5647,7 +5815,7 @@
         <v>103.79</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2016</v>
       </c>
@@ -5679,7 +5847,7 @@
         <v>112.37</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2016</v>
       </c>
@@ -5711,7 +5879,7 @@
         <v>100.43</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2016</v>
       </c>
@@ -5743,7 +5911,7 @@
         <v>85.57</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2016</v>
       </c>
@@ -5775,7 +5943,7 @@
         <v>105.37</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2016</v>
       </c>
@@ -5807,7 +5975,7 @@
         <v>87.54</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2016</v>
       </c>
@@ -5839,7 +6007,7 @@
         <v>102.95</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2016</v>
       </c>
@@ -5871,7 +6039,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2016</v>
       </c>
@@ -5903,7 +6071,7 @@
         <v>105.36</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2016</v>
       </c>
@@ -5935,7 +6103,7 @@
         <v>92.24</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2016</v>
       </c>
@@ -5967,7 +6135,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2016</v>
       </c>
@@ -5999,7 +6167,7 @@
         <v>98.78</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2016</v>
       </c>
@@ -6031,7 +6199,7 @@
         <v>94.65</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2016</v>
       </c>
@@ -6063,7 +6231,7 @@
         <v>107.37</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2016</v>
       </c>
@@ -6095,7 +6263,7 @@
         <v>90.11</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2016</v>
       </c>
@@ -6127,7 +6295,7 @@
         <v>100.81</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2016</v>
       </c>
@@ -6159,7 +6327,7 @@
         <v>111.78</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2016</v>
       </c>
@@ -6191,7 +6359,7 @@
         <v>105.34</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2016</v>
       </c>
@@ -6223,7 +6391,7 @@
         <v>88.63</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2016</v>
       </c>
@@ -6255,7 +6423,7 @@
         <v>93.87</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2016</v>
       </c>
@@ -6287,7 +6455,7 @@
         <v>93.89</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2016</v>
       </c>
@@ -6319,7 +6487,7 @@
         <v>107.76</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2016</v>
       </c>
@@ -6351,7 +6519,7 @@
         <v>105.45</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2016</v>
       </c>
@@ -6383,7 +6551,7 @@
         <v>108.11</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2016</v>
       </c>
@@ -6415,7 +6583,7 @@
         <v>95.69</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2016</v>
       </c>
@@ -6447,7 +6615,7 @@
         <v>89.86</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2016</v>
       </c>
@@ -6479,7 +6647,7 @@
         <v>94.24</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2016</v>
       </c>
@@ -6511,7 +6679,7 @@
         <v>116.74</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2016</v>
       </c>
@@ -6543,7 +6711,7 @@
         <v>115.82</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2016</v>
       </c>
@@ -6575,7 +6743,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2016</v>
       </c>
@@ -6607,7 +6775,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2016</v>
       </c>
@@ -6639,7 +6807,7 @@
         <v>94.65</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2016</v>
       </c>
@@ -6671,7 +6839,7 @@
         <v>114.39</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2016</v>
       </c>
@@ -6703,7 +6871,7 @@
         <v>91.52</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2016</v>
       </c>
@@ -6735,7 +6903,7 @@
         <v>114.11</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2016</v>
       </c>
@@ -6767,7 +6935,7 @@
         <v>101.31</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2016</v>
       </c>
@@ -6799,7 +6967,7 @@
         <v>109.62</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2016</v>
       </c>
@@ -6831,7 +6999,7 @@
         <v>102.94</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>56</v>
       </c>
@@ -6858,21 +7026,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:E100"/>
   <sheetViews>
     <sheetView topLeftCell="A100" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="14.5" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6889,7 +7057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -6906,7 +7074,7 @@
         <v>37301</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -6923,7 +7091,7 @@
         <v>75640</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -6940,7 +7108,7 @@
         <v>57545</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -6957,7 +7125,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -6974,7 +7142,7 @@
         <v>62013</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -6991,7 +7159,7 @@
         <v>58960</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -7008,7 +7176,7 @@
         <v>55261</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -7025,7 +7193,7 @@
         <v>75780</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -7042,7 +7210,7 @@
         <v>69559</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -7059,7 +7227,7 @@
         <v>59510</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -7076,7 +7244,7 @@
         <v>79962</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -7093,7 +7261,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -7110,7 +7278,7 @@
         <v>52165</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -7127,7 +7295,7 @@
         <v>40110</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -7144,7 +7312,7 @@
         <v>67261</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -7161,7 +7329,7 @@
         <v>47617</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -7178,7 +7346,7 @@
         <v>71176</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -7195,7 +7363,7 @@
         <v>65439</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -7212,7 +7380,7 @@
         <v>70582</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -7229,7 +7397,7 @@
         <v>35030</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -7246,7 +7414,7 @@
         <v>27103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -7263,7 +7431,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -7280,7 +7448,7 @@
         <v>63287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -7297,7 +7465,7 @@
         <v>42838</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -7314,7 +7482,7 @@
         <v>52318</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -7331,7 +7499,7 @@
         <v>72443</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2015</v>
       </c>
@@ -7348,7 +7516,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -7365,7 +7533,7 @@
         <v>77367</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2015</v>
       </c>
@@ -7382,7 +7550,7 @@
         <v>52065</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -7399,7 +7567,7 @@
         <v>52808</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -7416,7 +7584,7 @@
         <v>68390</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -7433,7 +7601,7 @@
         <v>69946</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -7450,7 +7618,7 @@
         <v>75666</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -7467,7 +7635,7 @@
         <v>46796</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -7484,7 +7652,7 @@
         <v>73540</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2015</v>
       </c>
@@ -7501,7 +7669,7 @@
         <v>40951</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -7518,7 +7686,7 @@
         <v>77433</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2015</v>
       </c>
@@ -7535,7 +7703,7 @@
         <v>32667</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2015</v>
       </c>
@@ -7552,7 +7720,7 @@
         <v>35316</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2015</v>
       </c>
@@ -7569,7 +7737,7 @@
         <v>72567</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -7586,7 +7754,7 @@
         <v>28398</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -7603,7 +7771,7 @@
         <v>43449</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2015</v>
       </c>
@@ -7620,7 +7788,7 @@
         <v>35381</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -7637,7 +7805,7 @@
         <v>64908</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -7654,7 +7822,7 @@
         <v>49790</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2015</v>
       </c>
@@ -7671,7 +7839,7 @@
         <v>49002</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2015</v>
       </c>
@@ -7688,7 +7856,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -7705,7 +7873,7 @@
         <v>73866</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2016</v>
       </c>
@@ -7722,7 +7890,7 @@
         <v>84430</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2016</v>
       </c>
@@ -7739,7 +7907,7 @@
         <v>46964</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2016</v>
       </c>
@@ -7756,7 +7924,7 @@
         <v>52440</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2016</v>
       </c>
@@ -7773,7 +7941,7 @@
         <v>27753</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2016</v>
       </c>
@@ -7790,7 +7958,7 @@
         <v>72544</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2016</v>
       </c>
@@ -7807,7 +7975,7 @@
         <v>62182</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2016</v>
       </c>
@@ -7824,7 +7992,7 @@
         <v>87430</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2016</v>
       </c>
@@ -7841,7 +8009,7 @@
         <v>93837</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2016</v>
       </c>
@@ -7858,7 +8026,7 @@
         <v>22157</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2016</v>
       </c>
@@ -7875,7 +8043,7 @@
         <v>85423</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2016</v>
       </c>
@@ -7892,7 +8060,7 @@
         <v>61182</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2016</v>
       </c>
@@ -7909,7 +8077,7 @@
         <v>18754</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2016</v>
       </c>
@@ -7926,7 +8094,7 @@
         <v>18468</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2016</v>
       </c>
@@ -7943,7 +8111,7 @@
         <v>84635</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2016</v>
       </c>
@@ -7960,7 +8128,7 @@
         <v>25513</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2016</v>
       </c>
@@ -7977,7 +8145,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2016</v>
       </c>
@@ -7994,7 +8162,7 @@
         <v>92183</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2016</v>
       </c>
@@ -8011,7 +8179,7 @@
         <v>53164</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2016</v>
       </c>
@@ -8028,7 +8196,7 @@
         <v>22790</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2016</v>
       </c>
@@ -8045,7 +8213,7 @@
         <v>51804</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2016</v>
       </c>
@@ -8062,7 +8230,7 @@
         <v>20778</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2016</v>
       </c>
@@ -8079,7 +8247,7 @@
         <v>37751</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2016</v>
       </c>
@@ -8096,7 +8264,7 @@
         <v>79844</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2016</v>
       </c>
@@ -8113,7 +8281,7 @@
         <v>58982</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2016</v>
       </c>
@@ -8130,7 +8298,7 @@
         <v>26912</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2016</v>
       </c>
@@ -8147,7 +8315,7 @@
         <v>77981</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2016</v>
       </c>
@@ -8164,7 +8332,7 @@
         <v>29758</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2016</v>
       </c>
@@ -8181,7 +8349,7 @@
         <v>71189</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2016</v>
       </c>
@@ -8198,7 +8366,7 @@
         <v>74910</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2016</v>
       </c>
@@ -8215,7 +8383,7 @@
         <v>36886</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2016</v>
       </c>
@@ -8232,7 +8400,7 @@
         <v>93802</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2016</v>
       </c>
@@ -8249,7 +8417,7 @@
         <v>64232</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2016</v>
       </c>
@@ -8266,7 +8434,7 @@
         <v>29862</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2016</v>
       </c>
@@ -8283,7 +8451,7 @@
         <v>34236</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2016</v>
       </c>
@@ -8300,7 +8468,7 @@
         <v>64089</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -8317,7 +8485,7 @@
         <v>20760</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2016</v>
       </c>
@@ -8334,7 +8502,7 @@
         <v>93954</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -8351,7 +8519,7 @@
         <v>93464</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2016</v>
       </c>
@@ -8368,7 +8536,7 @@
         <v>42827</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2016</v>
       </c>
@@ -8385,7 +8553,7 @@
         <v>18316</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2016</v>
       </c>
@@ -8402,7 +8570,7 @@
         <v>76085</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2016</v>
       </c>
@@ -8419,7 +8587,7 @@
         <v>46874</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2016</v>
       </c>
@@ -8436,7 +8604,7 @@
         <v>77908</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2016</v>
       </c>
@@ -8453,7 +8621,7 @@
         <v>67849</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2016</v>
       </c>
@@ -8470,7 +8638,7 @@
         <v>92555</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2016</v>
       </c>
@@ -8487,7 +8655,7 @@
         <v>20823</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -8504,7 +8672,7 @@
         <v>91802</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2016</v>
       </c>
@@ -8521,7 +8689,7 @@
         <v>19333</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>56</v>
       </c>
